--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/45_Kars_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/45_Kars_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C762F28D-15A0-44D9-BF9A-720A9100D490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE529CD0-7857-4944-AC29-072BF9391F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{DEB53894-0DAD-4366-A8F9-8C664EE12648}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{AACB7B5B-BA72-4CE2-9BD6-CC6AACAB971A}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -784,13 +784,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9CD984E9-1C0A-4194-9CA2-7A45F86576D3}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{83C7B2D2-ACE7-4B52-BA8D-308A2098D41D}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{6360D674-BECD-4BC5-AC93-5D1EFF9E4FA6}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{3D2D8F72-99E9-4987-87F9-2E103960E566}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{DA377C5B-6AA9-4A6A-BE4A-5E4DF971319F}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{9CC11795-D085-4043-943D-7DC4A62D57D6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{8458BD04-7904-4F4A-A782-7204B244D70A}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{04DDDC3D-878D-4A75-9BFC-3CFFFC4F0128}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7431CDDB-626A-4F45-9BE5-773148210529}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{C3DC72C1-97B1-4F7D-ACA2-39399CDC618E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{8FA23199-811B-48FE-93F8-5AF2A1C0F644}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{CAA94F54-733D-4AAA-8D6D-AC80B4EB9D50}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{38E907FA-1031-479F-A240-DE609446E624}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{1F8805F2-8083-41FA-B664-E8B8DB805A34}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1160,7 +1160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150CA240-261D-4476-AB0E-E00EEC23E9B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B5C741-A3D8-4F10-B7DC-59401EA837FA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2387,7 +2387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C050750E-8BF3-4592-8C22-960F3B9BB30A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F4C010-C835-4F27-9AFA-07241D448E51}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3632,7 +3632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA689889-1E10-42AE-910C-267608396F28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CDAAF6-714D-485C-B4EE-B5BEBD842EDD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4869,7 +4869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8B1A30-3C4E-413F-9D27-A3968892E7EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EEB25E-8E7D-4CE4-9527-9E1BC50E4E82}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6108,7 +6108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5380C33E-2B69-4BCE-BC60-BCEF3F4A7921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD40DCBF-BD51-4CB4-A53F-31FE74702371}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7331,7 +7331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9B9F5A-CA61-4FA7-8797-C56605F90153}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6823C6A3-98D4-4975-9B96-2D4CFC0B8AFC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
